--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.35840000000001</v>
+        <v>-22.1113</v>
       </c>
       <c r="B4" t="n">
-        <v>5.6065</v>
+        <v>5.382900000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.03689999999997</v>
+        <v>-20.11699999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.6418</v>
+        <v>-13.60059999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.695599999999999</v>
+        <v>4.589899999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.91329999999999</v>
+        <v>-13.23649999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.09360000000002</v>
+        <v>-22.00780000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.507499999999998</v>
+        <v>6.034299999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.583400000000005</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.501799999999989</v>
+        <v>9.518399999999987</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.8156</v>
+        <v>-21.8723</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.37569999999997</v>
+        <v>-21.32189999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.58169999999999</v>
+        <v>-12.27759999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.013499999999997</v>
+        <v>4.911899999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.18</v>
+        <v>-21.14289999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.64229999999998</v>
+        <v>-21.93629999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>6.108800000000003</v>
+        <v>6.062400000000007</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.4115</v>
+        <v>-12.44340000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.763800000000002</v>
+        <v>8.560399999999996</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.46939999999999</v>
+        <v>-13.2163</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.402100000000003</v>
+        <v>5.4544</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.474900000000003</v>
+        <v>5.355400000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.17929999999999</v>
+        <v>-22.24059999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.87060000000002</v>
+        <v>-21.87920000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.814299999999998</v>
+        <v>4.753299999999999</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.403599999999999</v>
+        <v>5.239200000000003</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.42330000000001</v>
+        <v>-21.44290000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.048300000000001</v>
+        <v>5.122299999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.148600000000004</v>
+        <v>5.101400000000003</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>6.101399999999997</v>
+        <v>5.109299999999995</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.49789999999999</v>
+        <v>-13.4775</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.8228</v>
+        <v>-12.6223</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.622499999999993</v>
+        <v>4.781799999999993</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.04510000000001</v>
+        <v>-22.05230000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
